--- a/service-system/src/main/resources/static/构造深度-5车道.xlsx
+++ b/service-system/src/main/resources/static/构造深度-5车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD863ACE-C550-4E69-949B-FFA7292B9589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E571165A-3DF8-4258-B043-9889E63FA7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="784" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="784" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="右幅-混凝土桥" sheetId="459" state="hidden" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="35">
   <si>
     <t>桥面系构造深度质量鉴定表</t>
   </si>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2车道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>4车道</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -161,15 +157,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>项目名称：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>隧道路面构造深度质量鉴定表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>桥面系构造深度质量鉴定表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左幅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1车道</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +185,7 @@
     <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="\D\K0#\+###"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,16 +226,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -390,7 +381,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,14 +406,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,19 +484,16 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,30 +821,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -881,110 +863,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="22"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1288,11 +1270,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -1307,10 +1289,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="12"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -1325,10 +1307,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="12"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -1343,10 +1325,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="18"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -1361,10 +1343,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="12"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -1379,10 +1361,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="12"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -1397,10 +1379,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="12"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -1450,254 +1432,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+    <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2213,15 +2199,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -2245,14 +2231,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -2273,16 +2259,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -2303,16 +2289,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -2333,16 +2319,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -2363,16 +2349,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="17" t="s">
+      <c r="T31" s="31" t="s">
         <v>2</v>
       </c>
       <c r="U31" s="32"/>
       <c r="V31" s="32"/>
       <c r="W31" s="32"/>
-      <c r="X31" s="18"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -2393,16 +2379,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="18"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -2423,31 +2409,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="18"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T32:X32"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="A4:A6"/>
@@ -2466,11 +2453,10 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -2485,254 +2471,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+    <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3248,15 +3238,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -3280,14 +3270,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -3308,16 +3298,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -3338,16 +3328,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -3368,16 +3358,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -3398,16 +3388,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -3428,16 +3418,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -3458,31 +3448,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T32:X32"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="A4:A6"/>
@@ -3501,11 +3492,10 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.25972222222222" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -3520,254 +3510,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+    <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4283,15 +4277,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -4315,14 +4309,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -4343,16 +4337,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -4373,16 +4367,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -4403,16 +4397,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -4433,16 +4427,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -4463,16 +4457,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -4493,31 +4487,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T32:X32"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="A4:A6"/>
@@ -4536,11 +4531,10 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -4555,254 +4549,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5318,15 +5316,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -5350,14 +5348,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -5378,16 +5376,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -5408,16 +5406,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -5438,16 +5436,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -5468,16 +5466,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -5498,16 +5496,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -5528,31 +5526,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T32:X32"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="A4:A6"/>
@@ -5571,11 +5570,10 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.299212598425197" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -5590,254 +5588,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6353,15 +6355,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -6385,14 +6387,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -6413,16 +6415,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -6443,16 +6445,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -6473,16 +6475,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -6503,16 +6505,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -6533,16 +6535,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -6563,31 +6565,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T32:X32"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="A4:A6"/>
@@ -6606,11 +6609,10 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -6625,254 +6627,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+    <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7388,15 +7394,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -7420,14 +7426,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -7448,16 +7454,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -7478,16 +7484,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -7508,16 +7514,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -7538,16 +7544,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -7568,16 +7574,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -7598,31 +7604,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T32:X32"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="A4:A6"/>
@@ -7641,11 +7648,10 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -7660,254 +7666,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+    <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="12"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8423,15 +8433,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -8455,14 +8465,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -8483,16 +8493,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -8513,16 +8523,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -8543,16 +8553,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -8573,16 +8583,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -8603,16 +8613,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -8633,31 +8643,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T32:X32"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="A4:A6"/>
@@ -8676,11 +8687,10 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -8695,254 +8705,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+    <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9458,15 +9472,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -9490,14 +9504,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -9518,16 +9532,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -9548,16 +9562,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -9578,16 +9592,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -9608,16 +9622,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -9638,16 +9652,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -9668,33 +9682,31 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="S4:S6"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="N4:R4"/>
@@ -9703,19 +9715,21 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="T28:X28"/>
     <mergeCell ref="T29:X29"/>
     <mergeCell ref="T30:X30"/>
     <mergeCell ref="T31:X31"/>
     <mergeCell ref="T32:X32"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="T26:W26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="1.3385826771653544" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -9730,254 +9744,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29:X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+    <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="12"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10493,15 +10511,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -10525,14 +10543,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -10553,16 +10571,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -10583,16 +10601,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -10613,16 +10631,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -10643,16 +10661,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -10673,16 +10691,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -10703,33 +10721,31 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="S4:S6"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="N4:R4"/>
@@ -10738,19 +10754,21 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="T28:X28"/>
     <mergeCell ref="T29:X29"/>
     <mergeCell ref="T30:X30"/>
     <mergeCell ref="T31:X31"/>
     <mergeCell ref="T32:X32"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="T26:W26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -10778,30 +10796,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -10820,110 +10838,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="22"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -11227,11 +11245,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -11246,10 +11264,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="12"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -11264,10 +11282,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="12"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -11282,10 +11300,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="18"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -11300,10 +11318,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="12"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -11318,10 +11336,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="12"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -11336,10 +11354,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="12"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -11402,30 +11420,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -11444,110 +11462,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="22"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -11851,11 +11869,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -11870,10 +11888,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="12"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -11888,10 +11906,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="12"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -11906,10 +11924,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="18"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -11924,10 +11942,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="12"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -11942,10 +11960,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="12"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -11960,10 +11978,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="12"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -12026,30 +12044,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -12068,110 +12086,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="22"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -12475,11 +12493,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -12494,10 +12512,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="12"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -12512,10 +12530,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="12"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -12530,10 +12548,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="18"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -12548,10 +12566,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="12"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -12566,10 +12584,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="12"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -12584,10 +12602,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="12"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -12650,30 +12668,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -12692,110 +12710,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="22"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -13099,11 +13117,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -13118,10 +13136,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="12"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -13136,10 +13154,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="12"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -13154,10 +13172,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="18"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -13172,10 +13190,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="12"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -13190,10 +13208,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="12"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -13208,10 +13226,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="12"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -13274,30 +13292,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -13316,110 +13334,110 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="22"/>
+      <c r="K3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
@@ -13723,11 +13741,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -13742,10 +13760,10 @@
       <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="12"/>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -13760,10 +13778,10 @@
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="12"/>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -13778,10 +13796,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="18"/>
+      <c r="K30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
@@ -13796,10 +13814,10 @@
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="12"/>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -13814,10 +13832,10 @@
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="12"/>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -13832,10 +13850,10 @@
       <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="12"/>
+      <c r="K33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -13885,55 +13903,60 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -13948,187 +13971,190 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="26" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="11" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13" t="s">
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="28"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14644,15 +14670,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -14676,14 +14702,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -14704,16 +14730,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -14734,16 +14760,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -14764,16 +14790,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -14794,16 +14820,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -14824,16 +14850,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -14854,31 +14880,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T32:X32"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="A4:A6"/>
@@ -14897,11 +14924,10 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -14916,254 +14942,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="26" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="26" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="12"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="28"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="28"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -15679,15 +15709,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -15711,14 +15741,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -15739,16 +15769,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -15769,16 +15799,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -15799,16 +15829,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -15829,16 +15859,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -15859,16 +15889,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -15889,31 +15919,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T32:X32"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="A4:A6"/>
@@ -15932,11 +15963,10 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
@@ -15951,254 +15981,258 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:X3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="24" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="12" width="5.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="18" width="5.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="24" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+    <row r="1" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="13"/>
+      <c r="S6" s="11"/>
       <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16714,15 +16748,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4" t="s">
         <v>2</v>
       </c>
@@ -16746,14 +16780,14 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -16774,16 +16808,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="18"/>
+      <c r="T28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -16804,16 +16838,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="18"/>
+      <c r="T29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -16834,16 +16868,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="18"/>
+      <c r="T30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -16864,16 +16898,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
+      <c r="T31" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
     </row>
     <row r="32" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -16894,16 +16928,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="25"/>
+      <c r="T32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -16924,31 +16958,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="25"/>
+      <c r="T33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="T26:W26"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="T32:X32"/>
     <mergeCell ref="T33:X33"/>
     <mergeCell ref="A4:A6"/>
@@ -16967,11 +17002,10 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="1.2986111111111101" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="11" man="1"/>
